--- a/Measurements/Test 1 - No obstacles/Statistics.xlsx
+++ b/Measurements/Test 1 - No obstacles/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\CodeFromGithub\SerialPortRead\Vamia-SerialPortReading\Measurements\Test 1 - No obstacles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAD1405-7BB8-4B18-B6D2-15B2BF1D25BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BE941E-3170-4885-AF92-E253642A6EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4235,10 +4235,10 @@
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4554,7 +4554,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
